--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>研发计划</t>
   </si>
@@ -556,9 +556,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>获取玩家授权</t>
-  </si>
-  <si>
     <t>引导第三步可分享、截图，包括玩家的头像名字，与引导阶段计算得出的称号，时间戳，小程序码</t>
   </si>
   <si>
@@ -589,13 +586,26 @@
     <t>优化：引导第2步，当在有慧眼状态下，累积按错了2次，则在之后的慧眼引导中，显示附加提示“绿圈与圆形重合时，是最佳触屏时机”</t>
   </si>
   <si>
-    <t>仅在失败界面，当玩家总累积失败次数&lt;=3时，提示“留住时间，添加到我的小程序”</t>
-  </si>
-  <si>
     <t>视频广告UI样式和文字的调整</t>
   </si>
   <si>
     <t>配置正式的全部参数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整游戏内的文本内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败界面，添加提示“留住时间，添加到我的小程序”</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无内购的免费游戏App上线App Store是否要版本</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取玩家用户信息授权</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1045,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1335,38 +1345,44 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="12" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="12" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -1743,309 +1759,330 @@
       </c>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="4">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="4">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="4">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="4">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="4">
+        <v>43510</v>
+      </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C99" s="4"/>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C100" s="4"/>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C102" s="4"/>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C104" s="4"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="4"/>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="12" t="s">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="C111" s="2"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" t="s">
-        <v>31</v>
-      </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="B114" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3">
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="B115" t="s">
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" t="s">
         <v>33</v>
       </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="B116" s="8" t="s">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="B118" s="1" t="s">
+      <c r="C117" s="2"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="B119" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C119" s="2">
-        <v>43532</v>
-      </c>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3">
       <c r="B120" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C120" s="2">
         <v>43532</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
+    <row r="121" spans="1:3">
+      <c r="B121" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="2">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="6" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C124" s="4">
         <v>43474</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="B124" s="6" t="s">
+    <row r="125" spans="1:3">
+      <c r="B125" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C125" s="4">
         <v>43475</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="B125" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="1:3">
       <c r="B126" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="1:3">
       <c r="B127" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="B129" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1"/>
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1"/>
+      <c r="B130" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="B130" t="s">
-        <v>41</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="B134" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C134" s="4">
-        <v>43452</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C135" s="4">
-        <v>43454</v>
+        <v>43452</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" s="4">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="B137" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C137" s="4">
         <v>43455</v>
       </c>
-      <c r="D136" s="8"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="B137" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" s="2"/>
+      <c r="D137" s="8"/>
     </row>
     <row r="138" spans="1:4">
       <c r="B138" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="B139" t="s">
+    <row r="140" spans="1:4">
+      <c r="B140" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="B140" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="B141" s="8" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="8" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="B144" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="8" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>研发计划</t>
   </si>
@@ -568,44 +568,53 @@
     <t>交流确认广告拉取失败的情况和处理</t>
   </si>
   <si>
+    <t>从后台切回游戏处理的完善 在游戏进行中点击打开了去除广告的界面</t>
+  </si>
+  <si>
+    <t>视频广告UI样式和文字的调整</t>
+  </si>
+  <si>
+    <t>配置正式的全部参数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整游戏内的文本内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败界面，添加提示“留住时间，添加到我的小程序”</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：增加引导第0步，全黑屏，界面中部有音效示意图标和文字“开启声音体验更佳”，淡出淡入到引导第1步</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：引导第2步，当在有慧眼状态下，累积按错了2次，则在之后的慧眼引导中，显示附加提示“绿圈与圆形重合时，是最佳触屏时机”</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加好友和群排行榜界面Banner广告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整banner广告重新拉取的时机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>去除Banner广告的显示遗留部分的完善</t>
-  </si>
-  <si>
-    <t>从后台切回游戏处理的完善 在游戏进行中点击打开了去除广告的界面</t>
-  </si>
-  <si>
-    <t>调整banner广告重新拉取的时机</t>
-  </si>
-  <si>
-    <t>增加好友和群排行榜界面Banner广告</t>
-  </si>
-  <si>
-    <t>优化：增加引导第0步，全黑屏，界面中部有音效示意图标和文字“开启声音体验更佳”，淡出淡入到引导第1步</t>
-  </si>
-  <si>
-    <t>优化：引导第2步，当在有慧眼状态下，累积按错了2次，则在之后的慧眼引导中，显示附加提示“绿圈与圆形重合时，是最佳触屏时机”</t>
-  </si>
-  <si>
-    <t>视频广告UI样式和文字的调整</t>
-  </si>
-  <si>
-    <t>配置正式的全部参数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整游戏内的文本内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败界面，添加提示“留住时间，添加到我的小程序”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>无内购的免费游戏App上线App Store是否要版本</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>获取玩家用户信息授权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漏满的数值降低调试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认无内购的免费游戏App上线App Store是否要版号</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1055,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1376,159 +1385,159 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="1" t="s">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="4">
-        <v>43434</v>
-      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="6" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C45" s="4">
-        <v>43446</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="6" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4">
-        <v>43459</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C47" s="4">
-        <v>43462</v>
+        <v>43459</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C48" s="4">
-        <v>43474</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C49" s="4">
-        <v>43476</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C50" s="4">
-        <v>43480</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="6" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C51" s="4">
-        <v>43483</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C53" s="4">
         <v>43487</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
+    <row r="54" spans="2:3">
+      <c r="B54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="4">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" t="s">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="1" t="s">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="4">
-        <v>43432</v>
-      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="4">
-        <v>43433</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="4">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C62" s="4">
         <v>43434</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="10">
-        <v>43437</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" s="10">
         <v>43437</v>
@@ -1536,31 +1545,31 @@
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C64" s="10">
-        <v>43438</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65" s="10">
-        <v>43439</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="10">
-        <v>43441</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C67" s="10">
         <v>43441</v>
@@ -1568,15 +1577,15 @@
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C68" s="10">
-        <v>43444</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C69" s="10">
         <v>43444</v>
@@ -1584,71 +1593,71 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="10">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C71" s="10">
         <v>43445</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="4">
-        <v>43447</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C72" s="4">
-        <v>43448</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C73" s="4">
         <v>43448</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="4">
-        <v>43451</v>
+    <row r="74" spans="2:3">
+      <c r="B74" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="4">
+        <v>43448</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="4">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C77" s="4">
         <v>43453</v>
       </c>
     </row>
-    <row r="77" spans="2:3" s="12" customFormat="1">
-      <c r="B77" s="6" t="s">
+    <row r="78" spans="2:3" s="12" customFormat="1">
+      <c r="B78" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C78" s="4">
         <v>43454</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="4">
-        <v>43455</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="4">
         <v>43455</v>
@@ -1656,119 +1665,119 @@
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C80" s="4">
         <v>43455</v>
       </c>
     </row>
-    <row r="81" spans="2:3" s="12" customFormat="1">
+    <row r="81" spans="2:3">
       <c r="B81" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C81" s="4">
         <v>43455</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" s="12" customFormat="1">
       <c r="B82" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C82" s="4">
-        <v>43458</v>
+        <v>43455</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="6" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C83" s="4">
-        <v>43463</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C84" s="4">
-        <v>43469</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C85" s="4">
-        <v>43473</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="6" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C86" s="4">
-        <v>43475</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C87" s="4">
-        <v>43479</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C88" s="4">
-        <v>43480</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="4">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C89" s="4">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B90" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="C90" s="4">
         <v>43481</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" ht="14.25" customHeight="1">
       <c r="B91" s="6" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C91" s="4">
-        <v>43488</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="6" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="C92" s="4">
-        <v>43490</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="6" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C93" s="4">
-        <v>43510</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C94" s="4">
         <v>43510</v>
@@ -1776,7 +1785,7 @@
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C95" s="4">
         <v>43510</v>
@@ -1784,7 +1793,7 @@
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C96" s="4">
         <v>43510</v>
@@ -1792,297 +1801,309 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C97" s="4">
         <v>43510</v>
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="4"/>
+      <c r="C98" s="4">
+        <v>43510</v>
+      </c>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="4"/>
+      <c r="B99" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="4">
+        <v>43514</v>
+      </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="4"/>
+      <c r="B100" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="4">
+        <v>43514</v>
+      </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C102" s="4"/>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="12" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C104" s="4"/>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="12" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C105" s="4"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="12" t="s">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C109" s="2"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="12" t="s">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="C112" s="2"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="B113" t="s">
-        <v>31</v>
-      </c>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3">
       <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115" t="s">
         <v>32</v>
       </c>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="1:3">
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="B116" t="s">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" t="s">
         <v>33</v>
       </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="B117" s="8" t="s">
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="B118" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="B119" s="1" t="s">
+      <c r="C118" s="2"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="B120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="B120" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="2">
-        <v>43532</v>
-      </c>
+      <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3">
       <c r="B121" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C121" s="2">
         <v>43532</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
+    <row r="122" spans="1:3">
+      <c r="B122" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="2">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1"/>
-      <c r="B124" s="6" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C125" s="4">
         <v>43474</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="B125" s="6" t="s">
+    <row r="126" spans="1:3">
+      <c r="B126" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C126" s="4">
         <v>43475</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="B126" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="1:3">
       <c r="B127" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C127" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="B130" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1"/>
-      <c r="B130" s="8" t="s">
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1"/>
+      <c r="B131" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="B131" t="s">
-        <v>41</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:4">
       <c r="B132" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="B133" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="B135" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C135" s="4">
-        <v>43452</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C136" s="4">
-        <v>43454</v>
+        <v>43452</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="B137" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" s="4">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C138" s="4">
         <v>43455</v>
       </c>
-      <c r="D137" s="8"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="B138" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C138" s="2"/>
+      <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="B140" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D140" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="B140" t="s">
+    <row r="141" spans="1:4">
+      <c r="B141" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="B141" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144" s="8" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="8" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>研发计划</t>
   </si>
@@ -615,6 +615,10 @@
   </si>
   <si>
     <t>确认无内购的免费游戏App上线App Store是否要版号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏标题Logo制作</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1064,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1489,63 +1493,61 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" t="s">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1" t="s">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="4">
-        <v>43432</v>
-      </c>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="4">
-        <v>43433</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="4">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C63" s="4">
         <v>43434</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="10">
-        <v>43437</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="10">
         <v>43437</v>
@@ -1553,31 +1555,31 @@
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C65" s="10">
-        <v>43438</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="10">
-        <v>43439</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" s="10">
-        <v>43441</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C68" s="10">
         <v>43441</v>
@@ -1585,15 +1587,15 @@
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C69" s="10">
-        <v>43444</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C70" s="10">
         <v>43444</v>
@@ -1601,71 +1603,71 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="10">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C72" s="10">
         <v>43445</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="4">
-        <v>43447</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C73" s="4">
-        <v>43448</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C74" s="4">
         <v>43448</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="4">
-        <v>43451</v>
+    <row r="75" spans="2:3">
+      <c r="B75" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="4">
+        <v>43448</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="4">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C78" s="4">
         <v>43453</v>
       </c>
     </row>
-    <row r="78" spans="2:3" s="12" customFormat="1">
-      <c r="B78" s="6" t="s">
+    <row r="79" spans="2:3" s="12" customFormat="1">
+      <c r="B79" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C79" s="4">
         <v>43454</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" s="4">
-        <v>43455</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" s="4">
         <v>43455</v>
@@ -1673,119 +1675,119 @@
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C81" s="4">
         <v>43455</v>
       </c>
     </row>
-    <row r="82" spans="2:3" s="12" customFormat="1">
+    <row r="82" spans="2:3">
       <c r="B82" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C82" s="4">
         <v>43455</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" s="12" customFormat="1">
       <c r="B83" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C83" s="4">
-        <v>43458</v>
+        <v>43455</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="6" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C84" s="4">
-        <v>43463</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C85" s="4">
-        <v>43469</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C86" s="4">
-        <v>43473</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="6" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C87" s="4">
-        <v>43475</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C88" s="4">
-        <v>43479</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C89" s="4">
-        <v>43480</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="4">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C90" s="4">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B91" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="C91" s="4">
         <v>43481</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" ht="14.25" customHeight="1">
       <c r="B92" s="6" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C92" s="4">
-        <v>43488</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="6" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="C93" s="4">
-        <v>43490</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C94" s="4">
-        <v>43510</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C95" s="4">
         <v>43510</v>
@@ -1793,7 +1795,7 @@
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C96" s="4">
         <v>43510</v>
@@ -1801,7 +1803,7 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C97" s="4">
         <v>43510</v>
@@ -1809,7 +1811,7 @@
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C98" s="4">
         <v>43510</v>
@@ -1817,85 +1819,95 @@
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C99" s="4">
-        <v>43514</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C100" s="4">
         <v>43514</v>
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="4">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="12" t="s">
+      <c r="C102" s="4">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="12" t="s">
+      <c r="C103" s="4">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="12" t="s">
+      <c r="C104" s="4">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C105" s="4"/>
+      <c r="C105" s="4">
+        <v>43515</v>
+      </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="8" t="s">
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="12" t="s">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C108" s="4"/>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" s="2"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" s="4"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3">
       <c r="C113" s="2"/>
@@ -1927,182 +1939,192 @@
       </c>
       <c r="C118" s="2"/>
     </row>
+    <row r="119" spans="1:3">
+      <c r="B119" s="8"/>
+      <c r="C119" s="2"/>
+    </row>
     <row r="120" spans="1:3">
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" s="4"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="B122" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="B121" s="8" t="s">
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="B123" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C123" s="2">
         <v>43532</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="B122" s="8" t="s">
+    <row r="124" spans="1:3">
+      <c r="B124" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C124" s="2">
         <v>43532</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1"/>
-      <c r="B125" s="6" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C127" s="4">
         <v>43474</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="B126" s="6" t="s">
+    <row r="128" spans="1:3">
+      <c r="B128" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C128" s="4">
         <v>43475</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="B127" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" s="4"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="B128" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C129" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1"/>
-      <c r="B131" s="8" t="s">
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1"/>
+      <c r="B133" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="B132" t="s">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="B134" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="B133" t="s">
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="B136" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C136" s="4">
-        <v>43452</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="B137" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C137" s="4">
-        <v>43454</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="B138" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" s="4">
+        <v>43452</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" s="4">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="B140" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C140" s="4">
         <v>43455</v>
       </c>
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="B139" s="8" t="s">
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="B141" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="B140" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="B141" t="s">
-        <v>44</v>
-      </c>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="B143" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>74</v>
+      <c r="B143" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="8" t="s">
+    <row r="148" spans="2:4">
+      <c r="B148" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="8" t="s">
+    <row r="149" spans="2:4">
+      <c r="B149" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="8" t="s">
+    <row r="150" spans="2:4">
+      <c r="B150" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="8" t="s">
+    <row r="151" spans="2:4">
+      <c r="B151" s="8" t="s">
         <v>142</v>
       </c>
     </row>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>研发计划</t>
   </si>
@@ -375,10 +375,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>排行榜-可以打开印记界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>商业化广告收益模型细化</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -411,10 +407,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>演示测试版 大厦工作人员</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>演示测试版 公司其他人员 第一波</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -448,18 +440,6 @@
   </si>
   <si>
     <t>优化游戏资源加载机制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营素材图制作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式版体验 项目组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式版功能\bug测试 项目组</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -552,10 +532,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>猎豹发行</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>引导第三步可分享、截图，包括玩家的头像名字，与引导阶段计算得出的称号，时间戳，小程序码</t>
   </si>
   <si>
@@ -614,11 +590,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>确认无内购的免费游戏App上线App Store是否要版号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏标题Logo制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信游戏位运营素材图制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>买量广告素材图制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式版功能测试&amp;体验 项目组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳三叶草 站桩英雄</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>零境网络 我要当皇上 消灭病毒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎豹发行 跳舞的线 滚动的天空 钢琴块</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,14 +701,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -747,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -763,7 +751,6 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1068,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1229,7 +1216,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="13" customFormat="1">
+    <row r="20" spans="2:3" s="12" customFormat="1">
       <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1232,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="13" customFormat="1">
+    <row r="22" spans="2:3" s="12" customFormat="1">
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
@@ -1253,7 +1240,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="23" spans="2:3" s="13" customFormat="1">
+    <row r="23" spans="2:3" s="12" customFormat="1">
       <c r="B23" s="6" t="s">
         <v>64</v>
       </c>
@@ -1279,7 +1266,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4">
         <v>43459</v>
@@ -1287,7 +1274,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4">
         <v>43461</v>
@@ -1295,7 +1282,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4">
         <v>43461</v>
@@ -1303,7 +1290,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4">
         <v>43468</v>
@@ -1311,7 +1298,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C30" s="4">
         <v>43480</v>
@@ -1319,7 +1306,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C31" s="4">
         <v>43480</v>
@@ -1327,7 +1314,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C32" s="4">
         <v>43481</v>
@@ -1343,7 +1330,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C34" s="4">
         <v>43486</v>
@@ -1351,7 +1338,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C35" s="4">
         <v>43486</v>
@@ -1367,7 +1354,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C37" s="4">
         <v>43511</v>
@@ -1375,35 +1362,43 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4">
         <v>43511</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="4">
+        <v>43524</v>
+      </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="2"/>
+      <c r="B42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43525</v>
+      </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="1" t="s">
@@ -1429,7 +1424,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="4">
         <v>43459</v>
@@ -1445,7 +1440,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="4">
         <v>43474</v>
@@ -1453,7 +1448,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="4">
         <v>43476</v>
@@ -1492,14 +1487,14 @@
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="8" t="s">
-        <v>143</v>
+      <c r="B55" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -1511,51 +1506,49 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="1" t="s">
+    <row r="59" spans="2:3">
+      <c r="B59" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="4">
-        <v>43432</v>
-      </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="4">
-        <v>43433</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="4">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C64" s="4">
         <v>43434</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="10">
-        <v>43437</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" s="10">
         <v>43437</v>
@@ -1563,31 +1556,31 @@
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C66" s="10">
-        <v>43438</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67" s="10">
-        <v>43439</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68" s="10">
-        <v>43441</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C69" s="10">
         <v>43441</v>
@@ -1595,15 +1588,15 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C70" s="10">
-        <v>43444</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C71" s="10">
         <v>43444</v>
@@ -1611,71 +1604,71 @@
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="10">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C73" s="10">
         <v>43445</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="4">
-        <v>43447</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C74" s="4">
-        <v>43448</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C75" s="4">
         <v>43448</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="4">
-        <v>43451</v>
+    <row r="76" spans="2:3">
+      <c r="B76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="4">
+        <v>43448</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="4">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C79" s="4">
         <v>43453</v>
       </c>
     </row>
-    <row r="79" spans="2:3" s="12" customFormat="1">
-      <c r="B79" s="6" t="s">
+    <row r="80" spans="2:3" s="11" customFormat="1">
+      <c r="B80" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C80" s="4">
         <v>43454</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="4">
-        <v>43455</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C81" s="4">
         <v>43455</v>
@@ -1683,58 +1676,58 @@
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C82" s="4">
         <v>43455</v>
       </c>
     </row>
-    <row r="83" spans="2:3" s="12" customFormat="1">
+    <row r="83" spans="2:3">
       <c r="B83" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C83" s="4">
         <v>43455</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" s="11" customFormat="1">
       <c r="B84" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C84" s="4">
-        <v>43458</v>
+        <v>43455</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4">
-        <v>43463</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C86" s="4">
-        <v>43469</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C87" s="4">
-        <v>43473</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="6" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C88" s="4">
-        <v>43475</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="89" spans="2:3">
@@ -1742,60 +1735,60 @@
         <v>97</v>
       </c>
       <c r="C89" s="4">
-        <v>43479</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C90" s="4">
-        <v>43480</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C91" s="4">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="14.25" customHeight="1">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
       <c r="B92" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C92" s="4">
         <v>43481</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" ht="14.25" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C93" s="4">
-        <v>43488</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="6" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="C94" s="4">
-        <v>43490</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C95" s="4">
-        <v>43510</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C96" s="4">
         <v>43510</v>
@@ -1803,7 +1796,7 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="4">
         <v>43510</v>
@@ -1811,7 +1804,7 @@
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C98" s="4">
         <v>43510</v>
@@ -1819,7 +1812,7 @@
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C99" s="4">
         <v>43510</v>
@@ -1827,15 +1820,15 @@
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C100" s="4">
-        <v>43514</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C101" s="4">
         <v>43514</v>
@@ -1843,15 +1836,15 @@
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="6" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C102" s="4">
-        <v>43515</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C103" s="4">
         <v>43515</v>
@@ -1859,7 +1852,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C104" s="4">
         <v>43515</v>
@@ -1867,45 +1860,49 @@
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C105" s="4">
         <v>43515</v>
       </c>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C106" s="4"/>
+      <c r="B106" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="4">
+        <v>43515</v>
+      </c>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" s="4"/>
+      <c r="B107" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="4">
+        <v>43508</v>
+      </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108" s="2"/>
+      <c r="B108" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" s="4"/>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" s="2"/>
+      <c r="B109" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="4"/>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" s="8" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2"/>
     </row>
@@ -1935,7 +1932,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="B118" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2"/>
     </row>
@@ -1944,8 +1941,8 @@
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="B120" s="12" t="s">
-        <v>98</v>
+      <c r="B120" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C120" s="4"/>
     </row>
@@ -1979,7 +1976,7 @@
     <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C127" s="4">
         <v>43474</v>
@@ -1987,7 +1984,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="B128" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C128" s="4">
         <v>43475</v>
@@ -1995,137 +1992,130 @@
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C129" s="4"/>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" s="8" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:4">
+      <c r="A131" s="1"/>
       <c r="B131" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="B132" s="8" t="s">
-        <v>105</v>
+      <c r="B132" t="s">
+        <v>41</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1"/>
-      <c r="B133" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="B134" t="s">
-        <v>41</v>
-      </c>
-      <c r="C134" s="2"/>
+      <c r="B133" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="B135" t="s">
-        <v>42</v>
+      <c r="A135" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="B136" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="4">
+        <v>43452</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="1" t="s">
-        <v>43</v>
+      <c r="B137" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" s="4">
+        <v>43454</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="B138" s="6" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C138" s="4">
-        <v>43452</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>80</v>
-      </c>
+        <v>43455</v>
+      </c>
+      <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="B139" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C139" s="4">
-        <v>43454</v>
-      </c>
+      <c r="B139" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="B140" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C140" s="4">
-        <v>43455</v>
-      </c>
-      <c r="D140" s="8"/>
+      <c r="B140" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="B141" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C141" s="2"/>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="B143" t="s">
-        <v>44</v>
+      <c r="B143" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
-      <c r="B145" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
       <c r="B146" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
       <c r="B148" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
       <c r="B149" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
       <c r="B150" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4">
-      <c r="B151" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>研发计划</t>
   </si>
@@ -420,10 +420,6 @@
   </si>
   <si>
     <t>数据库备份机制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏内文字的提取工具</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1055,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1298,7 +1294,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="4">
         <v>43480</v>
@@ -1306,7 +1302,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="4">
         <v>43480</v>
@@ -1314,7 +1310,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="4">
         <v>43481</v>
@@ -1330,7 +1326,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="4">
         <v>43486</v>
@@ -1338,7 +1334,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="4">
         <v>43486</v>
@@ -1354,7 +1350,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4">
         <v>43511</v>
@@ -1362,7 +1358,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4">
         <v>43511</v>
@@ -1370,7 +1366,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="4">
         <v>43522</v>
@@ -1378,7 +1374,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="4">
         <v>43522</v>
@@ -1394,7 +1390,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="4">
         <v>43525</v>
@@ -1488,13 +1484,13 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -1506,13 +1502,13 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -1732,7 +1728,7 @@
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="4">
         <v>43475</v>
@@ -1748,7 +1744,7 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="4">
         <v>43480</v>
@@ -1756,7 +1752,7 @@
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="4">
         <v>43481</v>
@@ -1764,7 +1760,7 @@
     </row>
     <row r="93" spans="2:3" ht="14.25" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" s="4">
         <v>43481</v>
@@ -1780,7 +1776,7 @@
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C95" s="4">
         <v>43490</v>
@@ -1788,7 +1784,7 @@
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" s="4">
         <v>43510</v>
@@ -1796,7 +1792,7 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="4">
         <v>43510</v>
@@ -1804,7 +1800,7 @@
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C98" s="4">
         <v>43510</v>
@@ -1812,7 +1808,7 @@
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C99" s="4">
         <v>43510</v>
@@ -1820,7 +1816,7 @@
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C100" s="4">
         <v>43510</v>
@@ -1828,7 +1824,7 @@
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C101" s="4">
         <v>43514</v>
@@ -1836,7 +1832,7 @@
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" s="4">
         <v>43514</v>
@@ -1844,7 +1840,7 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C103" s="4">
         <v>43515</v>
@@ -1852,7 +1848,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" s="4">
         <v>43515</v>
@@ -1860,7 +1856,7 @@
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105" s="4">
         <v>43515</v>
@@ -1868,7 +1864,7 @@
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C106" s="4">
         <v>43515</v>
@@ -1876,33 +1872,35 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C107" s="4">
         <v>43508</v>
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C108" s="4"/>
+      <c r="B108" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="4">
+        <v>43524</v>
+      </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="4"/>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2"/>
     </row>
@@ -1932,190 +1930,180 @@
     </row>
     <row r="118" spans="1:3">
       <c r="B118" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:3">
-      <c r="B119" s="8"/>
-      <c r="C119" s="2"/>
-    </row>
     <row r="120" spans="1:3">
-      <c r="B120" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C120" s="4"/>
+      <c r="B120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="B121" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="2">
+        <v>43532</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="B122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="B123" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C123" s="2">
+      <c r="B122" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="2">
         <v>43532</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="B124" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C124" s="2">
-        <v>43532</v>
+      <c r="A124" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="4">
+        <v>43474</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1" t="s">
-        <v>40</v>
+      <c r="B126" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="4">
+        <v>43475</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1"/>
-      <c r="B127" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C127" s="4">
-        <v>43474</v>
-      </c>
+      <c r="B127" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="B128" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C128" s="4">
-        <v>43475</v>
-      </c>
+      <c r="B128" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:4">
+      <c r="A129" s="1"/>
       <c r="B129" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C129" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="B130" s="8" t="s">
-        <v>139</v>
+      <c r="B130" t="s">
+        <v>41</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="1"/>
-      <c r="B131" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="B132" t="s">
-        <v>41</v>
-      </c>
-      <c r="C132" s="2"/>
+      <c r="B131" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="B133" t="s">
-        <v>42</v>
+      <c r="A133" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="B134" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" s="4">
+        <v>43452</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="1" t="s">
-        <v>43</v>
+      <c r="B135" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="4">
+        <v>43454</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="6" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C136" s="4">
-        <v>43452</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>80</v>
-      </c>
+        <v>43455</v>
+      </c>
+      <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="B137" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C137" s="4">
-        <v>43454</v>
-      </c>
+      <c r="B137" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="B138" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C138" s="4">
-        <v>43455</v>
-      </c>
-      <c r="D138" s="8"/>
+      <c r="B138" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="B139" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C139" s="2"/>
+      <c r="B139" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="B140" s="8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="B141" t="s">
-        <v>44</v>
+      <c r="B141" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="B143" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="8" t="s">
-        <v>99</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="8" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="8" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>研发计划</t>
   </si>
@@ -611,6 +611,10 @@
   </si>
   <si>
     <t>猎豹发行 跳舞的线 滚动的天空 钢琴块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯游戏创意大赛小游戏赛区</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:XFD120"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2078,31 +2082,37 @@
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="8" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="B144" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="8" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="8" t="s">
         <v>139</v>
       </c>
     </row>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>数据统计开发</t>
-  </si>
-  <si>
-    <t>上架接入开发</t>
   </si>
   <si>
     <t>配置文件打包工具</t>
@@ -496,125 +493,129 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>周边功能-游戏圈、意见反馈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享开发完善</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通流量主，确认设置收入相关银行账户</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信平台运营素材图需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>买量广告素材图需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>taptap是不是能接入小游戏，当做宣传和反馈的地方</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰岛是否发行小游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导第三步可分享、截图，包括玩家的头像名字，与引导阶段计算得出的称号，时间戳，小程序码</t>
+  </si>
+  <si>
+    <t>印记界面增加截图和时间戳</t>
+  </si>
+  <si>
+    <t>得到慧眼的提示框里加文字说明</t>
+  </si>
+  <si>
+    <t>交流确认广告拉取失败的情况和处理</t>
+  </si>
+  <si>
+    <t>从后台切回游戏处理的完善 在游戏进行中点击打开了去除广告的界面</t>
+  </si>
+  <si>
+    <t>视频广告UI样式和文字的调整</t>
+  </si>
+  <si>
+    <t>配置正式的全部参数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整游戏内的文本内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败界面，添加提示“留住时间，添加到我的小程序”</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：增加引导第0步，全黑屏，界面中部有音效示意图标和文字“开启声音体验更佳”，淡出淡入到引导第1步</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：引导第2步，当在有慧眼状态下，累积按错了2次，则在之后的慧眼引导中，显示附加提示“绿圈与圆形重合时，是最佳触屏时机”</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加好友和群排行榜界面Banner广告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整banner广告重新拉取的时机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除Banner广告的显示遗留部分的完善</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取玩家用户信息授权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漏满的数值降低调试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏标题Logo制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信游戏位运营素材图制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>买量广告素材图制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式版功能测试&amp;体验 项目组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳三叶草 站桩英雄</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>零境网络 我要当皇上 消灭病毒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎豹发行 跳舞的线 滚动的天空 钢琴块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯游戏创意大赛小游戏赛区</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>微信MP平台上排行榜配置</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>周边功能-游戏圈、意见反馈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享开发完善</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>开通流量主，确认设置收入相关银行账户</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信平台运营素材图需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>买量广告素材图需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>taptap是不是能接入小游戏，当做宣传和反馈的地方</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰岛是否发行小游戏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导第三步可分享、截图，包括玩家的头像名字，与引导阶段计算得出的称号，时间戳，小程序码</t>
-  </si>
-  <si>
-    <t>印记界面增加截图和时间戳</t>
-  </si>
-  <si>
-    <t>得到慧眼的提示框里加文字说明</t>
-  </si>
-  <si>
-    <t>交流确认广告拉取失败的情况和处理</t>
-  </si>
-  <si>
-    <t>从后台切回游戏处理的完善 在游戏进行中点击打开了去除广告的界面</t>
-  </si>
-  <si>
-    <t>视频广告UI样式和文字的调整</t>
-  </si>
-  <si>
-    <t>配置正式的全部参数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整游戏内的文本内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败界面，添加提示“留住时间，添加到我的小程序”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化：增加引导第0步，全黑屏，界面中部有音效示意图标和文字“开启声音体验更佳”，淡出淡入到引导第1步</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化：引导第2步，当在有慧眼状态下，累积按错了2次，则在之后的慧眼引导中，显示附加提示“绿圈与圆形重合时，是最佳触屏时机”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加好友和群排行榜界面Banner广告</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整banner广告重新拉取的时机</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>去除Banner广告的显示遗留部分的完善</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取玩家用户信息授权</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漏满的数值降低调试</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏标题Logo制作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信游戏位运营素材图制作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>买量广告素材图制作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式版功能测试&amp;体验 项目组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳三叶草 站桩英雄</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>零境网络 我要当皇上 消灭病毒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎豹发行 跳舞的线 滚动的天空 钢琴块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯游戏创意大赛小游戏赛区</t>
+    <t>上架接入开发 微信MP平台上 服务器域名配置</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1057,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1186,7 +1187,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10">
         <v>43441</v>
@@ -1194,7 +1195,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="10">
         <v>43444</v>
@@ -1202,7 +1203,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="10">
         <v>43444</v>
@@ -1210,7 +1211,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="10">
         <v>43444</v>
@@ -1226,7 +1227,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4">
         <v>43446</v>
@@ -1242,7 +1243,7 @@
     </row>
     <row r="23" spans="2:3" s="12" customFormat="1">
       <c r="B23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4">
         <v>43447</v>
@@ -1250,7 +1251,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4">
         <v>43448</v>
@@ -1258,7 +1259,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4">
         <v>43452</v>
@@ -1266,7 +1267,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="4">
         <v>43459</v>
@@ -1274,7 +1275,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="4">
         <v>43461</v>
@@ -1282,7 +1283,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4">
         <v>43461</v>
@@ -1290,7 +1291,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4">
         <v>43468</v>
@@ -1298,7 +1299,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="4">
         <v>43480</v>
@@ -1306,7 +1307,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4">
         <v>43480</v>
@@ -1314,7 +1315,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4">
         <v>43481</v>
@@ -1322,7 +1323,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="4">
         <v>43482</v>
@@ -1330,7 +1331,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="4">
         <v>43486</v>
@@ -1338,7 +1339,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="4">
         <v>43486</v>
@@ -1346,7 +1347,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4">
         <v>43510</v>
@@ -1354,7 +1355,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="4">
         <v>43511</v>
@@ -1362,7 +1363,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="4">
         <v>43511</v>
@@ -1370,7 +1371,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="4">
         <v>43522</v>
@@ -1378,7 +1379,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4">
         <v>43522</v>
@@ -1386,7 +1387,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4">
         <v>43524</v>
@@ -1394,7 +1395,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C42" s="4">
         <v>43525</v>
@@ -1416,7 +1417,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4">
         <v>43446</v>
@@ -1424,7 +1425,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="4">
         <v>43459</v>
@@ -1432,7 +1433,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="4">
         <v>43462</v>
@@ -1440,7 +1441,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="4">
         <v>43474</v>
@@ -1448,7 +1449,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="4">
         <v>43476</v>
@@ -1456,7 +1457,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="4">
         <v>43480</v>
@@ -1488,13 +1489,13 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -1506,13 +1507,13 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -1564,7 +1565,7 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="10">
         <v>43438</v>
@@ -1572,7 +1573,7 @@
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C68" s="10">
         <v>43439</v>
@@ -1580,7 +1581,7 @@
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="10">
         <v>43441</v>
@@ -1588,7 +1589,7 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="10">
         <v>43441</v>
@@ -1596,7 +1597,7 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="10">
         <v>43444</v>
@@ -1604,7 +1605,7 @@
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="10">
         <v>43444</v>
@@ -1612,7 +1613,7 @@
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C73" s="10">
         <v>43445</v>
@@ -1620,7 +1621,7 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="4">
         <v>43447</v>
@@ -1628,7 +1629,7 @@
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="4">
         <v>43448</v>
@@ -1636,7 +1637,7 @@
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" s="4">
         <v>43448</v>
@@ -1644,7 +1645,7 @@
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="4">
         <v>43451</v>
@@ -1660,7 +1661,7 @@
     </row>
     <row r="80" spans="2:3" s="11" customFormat="1">
       <c r="B80" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="4">
         <v>43454</v>
@@ -1668,7 +1669,7 @@
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" s="4">
         <v>43455</v>
@@ -1676,7 +1677,7 @@
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="4">
         <v>43455</v>
@@ -1684,7 +1685,7 @@
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="4">
         <v>43455</v>
@@ -1692,7 +1693,7 @@
     </row>
     <row r="84" spans="2:3" s="11" customFormat="1">
       <c r="B84" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="4">
         <v>43455</v>
@@ -1700,7 +1701,7 @@
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="4">
         <v>43458</v>
@@ -1708,7 +1709,7 @@
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86" s="4">
         <v>43463</v>
@@ -1716,7 +1717,7 @@
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="4">
         <v>43469</v>
@@ -1724,7 +1725,7 @@
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88" s="4">
         <v>43473</v>
@@ -1732,7 +1733,7 @@
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" s="4">
         <v>43475</v>
@@ -1740,7 +1741,7 @@
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="4">
         <v>43479</v>
@@ -1748,7 +1749,7 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" s="4">
         <v>43480</v>
@@ -1756,7 +1757,7 @@
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="4">
         <v>43481</v>
@@ -1764,7 +1765,7 @@
     </row>
     <row r="93" spans="2:3" ht="14.25" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="4">
         <v>43481</v>
@@ -1780,7 +1781,7 @@
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="4">
         <v>43490</v>
@@ -1788,7 +1789,7 @@
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C96" s="4">
         <v>43510</v>
@@ -1796,7 +1797,7 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C97" s="4">
         <v>43510</v>
@@ -1804,7 +1805,7 @@
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C98" s="4">
         <v>43510</v>
@@ -1812,7 +1813,7 @@
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C99" s="4">
         <v>43510</v>
@@ -1820,7 +1821,7 @@
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C100" s="4">
         <v>43510</v>
@@ -1828,7 +1829,7 @@
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C101" s="4">
         <v>43514</v>
@@ -1836,7 +1837,7 @@
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C102" s="4">
         <v>43514</v>
@@ -1844,7 +1845,7 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C103" s="4">
         <v>43515</v>
@@ -1852,7 +1853,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C104" s="4">
         <v>43515</v>
@@ -1860,7 +1861,7 @@
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C105" s="4">
         <v>43515</v>
@@ -1868,7 +1869,7 @@
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C106" s="4">
         <v>43515</v>
@@ -1876,7 +1877,7 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C107" s="4">
         <v>43508</v>
@@ -1884,7 +1885,7 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C108" s="4">
         <v>43524</v>
@@ -1892,19 +1893,19 @@
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C110" s="4"/>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2"/>
     </row>
@@ -1927,26 +1928,26 @@
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="B117" t="s">
-        <v>33</v>
+      <c r="B117" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3">
       <c r="B118" s="8" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="120" spans="1:3">
       <c r="B120" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3">
       <c r="B121" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C121" s="2">
         <v>43532</v>
@@ -1954,7 +1955,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="B122" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C122" s="2">
         <v>43532</v>
@@ -1962,13 +1963,13 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="4">
         <v>43474</v>
@@ -1976,7 +1977,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="B126" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C126" s="4">
         <v>43475</v>
@@ -1984,53 +1985,53 @@
     </row>
     <row r="127" spans="1:3">
       <c r="B127" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C127" s="4"/>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1"/>
       <c r="B129" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="B134" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C134" s="4">
         <v>43452</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C135" s="4">
         <v>43454</v>
@@ -2038,7 +2039,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C136" s="4">
         <v>43455</v>
@@ -2046,74 +2047,76 @@
       <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="B137" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" s="2"/>
+      <c r="B137" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" s="4">
+        <v>43539</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
       <c r="B138" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="B140" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="B141" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D142" s="8"/>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>研发计划</t>
   </si>
@@ -412,10 +412,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>云测试、微信小游戏测试新服务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库备份机制</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -456,23 +452,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>首次发布30天内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可申请</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>了解微信平台、阿拉丁平台数据统计的支持</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -493,10 +472,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>周边功能-游戏圈、意见反馈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>分享开发完善</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -616,6 +591,34 @@
   </si>
   <si>
     <t>上架接入开发 微信MP平台上 服务器域名配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边功能-游戏圈、意见反馈（在广告及统计相关调试没问题后，移到自己的appid后开发）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始买量，130  1000用户，为了次日快速申请开广告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通广告主</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次发布90天内可申请</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏测试新服务</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeTest云测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏的云测试(暂不支持小游戏)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +626,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +718,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -736,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -752,6 +763,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1056,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1193,15 +1205,19 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:6">
       <c r="B17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="10">
         <v>43444</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="F17">
+        <f>452/640</f>
+        <v>0.70625000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="9" t="s">
         <v>59</v>
       </c>
@@ -1209,7 +1225,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:6">
       <c r="B19" s="9" t="s">
         <v>58</v>
       </c>
@@ -1217,7 +1233,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="12" customFormat="1">
+    <row r="20" spans="2:6" s="12" customFormat="1">
       <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
@@ -1225,7 +1241,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:6">
       <c r="B21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1233,7 +1249,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="12" customFormat="1">
+    <row r="22" spans="2:6" s="12" customFormat="1">
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1257,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="23" spans="2:3" s="12" customFormat="1">
+    <row r="23" spans="2:6" s="12" customFormat="1">
       <c r="B23" s="6" t="s">
         <v>63</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:6">
       <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
@@ -1257,7 +1273,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:6">
       <c r="B25" s="6" t="s">
         <v>67</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:6">
       <c r="B26" s="6" t="s">
         <v>84</v>
       </c>
@@ -1273,7 +1289,7 @@
         <v>43459</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:6">
       <c r="B27" s="6" t="s">
         <v>85</v>
       </c>
@@ -1281,7 +1297,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:6">
       <c r="B28" s="6" t="s">
         <v>83</v>
       </c>
@@ -1289,7 +1305,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:6">
       <c r="B29" s="6" t="s">
         <v>88</v>
       </c>
@@ -1297,25 +1313,25 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:6">
       <c r="B30" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4">
         <v>43480</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:6">
       <c r="B31" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="4">
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:6">
       <c r="B32" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="4">
         <v>43481</v>
@@ -1331,7 +1347,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="4">
         <v>43486</v>
@@ -1339,7 +1355,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="4">
         <v>43486</v>
@@ -1355,7 +1371,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="4">
         <v>43511</v>
@@ -1363,7 +1379,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C38" s="4">
         <v>43511</v>
@@ -1371,7 +1387,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39" s="4">
         <v>43522</v>
@@ -1379,7 +1395,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" s="4">
         <v>43522</v>
@@ -1395,7 +1411,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C42" s="4">
         <v>43525</v>
@@ -1489,13 +1505,13 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -1507,13 +1523,13 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -1733,7 +1749,7 @@
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="4">
         <v>43475</v>
@@ -1741,7 +1757,7 @@
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" s="4">
         <v>43479</v>
@@ -1749,7 +1765,7 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="4">
         <v>43480</v>
@@ -1757,7 +1773,7 @@
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C92" s="4">
         <v>43481</v>
@@ -1765,7 +1781,7 @@
     </row>
     <row r="93" spans="2:3" ht="14.25" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="4">
         <v>43481</v>
@@ -1781,7 +1797,7 @@
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C95" s="4">
         <v>43490</v>
@@ -1789,7 +1805,7 @@
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C96" s="4">
         <v>43510</v>
@@ -1797,7 +1813,7 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C97" s="4">
         <v>43510</v>
@@ -1805,7 +1821,7 @@
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C98" s="4">
         <v>43510</v>
@@ -1813,7 +1829,7 @@
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C99" s="4">
         <v>43510</v>
@@ -1821,7 +1837,7 @@
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C100" s="4">
         <v>43510</v>
@@ -1829,7 +1845,7 @@
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C101" s="4">
         <v>43514</v>
@@ -1837,7 +1853,7 @@
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C102" s="4">
         <v>43514</v>
@@ -1845,7 +1861,7 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C103" s="4">
         <v>43515</v>
@@ -1853,7 +1869,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C104" s="4">
         <v>43515</v>
@@ -1861,7 +1877,7 @@
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C105" s="4">
         <v>43515</v>
@@ -1869,7 +1885,7 @@
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C106" s="4">
         <v>43515</v>
@@ -1877,7 +1893,7 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C107" s="4">
         <v>43508</v>
@@ -1885,7 +1901,7 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C108" s="4">
         <v>43524</v>
@@ -1893,34 +1909,37 @@
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C110" s="4"/>
     </row>
+    <row r="111" spans="2:3">
+      <c r="C111" s="2"/>
+    </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="8" t="s">
-        <v>111</v>
+      <c r="B112" t="s">
+        <v>31</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3">
+      <c r="B113" t="s">
+        <v>32</v>
+      </c>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="B114" t="s">
-        <v>31</v>
-      </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="B115" t="s">
-        <v>32</v>
+      <c r="B115" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C115" s="2"/>
     </row>
@@ -1929,13 +1948,13 @@
     </row>
     <row r="117" spans="1:3">
       <c r="B117" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3">
       <c r="B118" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2"/>
     </row>
@@ -1946,19 +1965,19 @@
       <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C121" s="2">
-        <v>43532</v>
+      <c r="C121" s="4">
+        <v>43539</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C122" s="2">
-        <v>43532</v>
+      <c r="C122" s="4">
+        <v>43539</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1991,132 +2010,156 @@
     </row>
     <row r="128" spans="1:3">
       <c r="B128" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1"/>
       <c r="B129" s="8" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="B130" t="s">
-        <v>40</v>
+      <c r="A130" s="1"/>
+      <c r="B130" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="B134" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C134" s="4">
-        <v>43452</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="B135" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C135" s="4">
-        <v>43454</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C136" s="4">
-        <v>43455</v>
-      </c>
-      <c r="D136" s="8"/>
+        <v>43452</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="B137" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C137" s="4">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="4">
+        <v>43455</v>
+      </c>
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C139" s="4">
         <v>43539</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="B138" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="B139" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="140" spans="1:4">
-      <c r="B140" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B140" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="B141" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="B141" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D142" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="B143" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
+      <c r="B143" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
       <c r="B145" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
+        <v>72</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
       <c r="B146" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
+        <v>137</v>
+      </c>
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="2:4">
       <c r="B147" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
       <c r="B149" s="8" t="s">
-        <v>137</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>研发计划</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>外部种子玩家</t>
-  </si>
-  <si>
-    <t>对外灰度</t>
   </si>
   <si>
     <t>发行计划</t>
@@ -590,10 +587,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>上架接入开发 微信MP平台上 服务器域名配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>周边功能-游戏圈、意见反馈（在广告及统计相关调试没问题后，移到自己的appid后开发）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -610,15 +603,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>微信小游戏测试新服务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeTest云测试</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信小游戏的云测试(暂不支持小游戏)</t>
+    <t>上架接入 微信MP平台上 服务器域名配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏测试云服务（还未开放）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeTest云测试 性能测试Argus 微信小游戏接入JS-SDK（目前不用）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏开发者工具里的云测试(暂不支持小游戏)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +723,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -747,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -764,6 +770,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1068,9 +1076,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
       <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
@@ -1199,41 +1207,37 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="10">
         <v>43441</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:3">
       <c r="B17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10">
         <v>43444</v>
       </c>
-      <c r="F17">
-        <f>452/640</f>
-        <v>0.70625000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="10">
         <v>43444</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:3">
       <c r="B19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="10">
         <v>43444</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="12" customFormat="1">
+    <row r="20" spans="2:3" s="12" customFormat="1">
       <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
@@ -1241,15 +1245,15 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:3">
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4">
         <v>43446</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="12" customFormat="1">
+    <row r="22" spans="2:3" s="12" customFormat="1">
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
@@ -1257,81 +1261,81 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="12" customFormat="1">
+    <row r="23" spans="2:3" s="12" customFormat="1">
       <c r="B23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4">
         <v>43447</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:3">
       <c r="B24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4">
         <v>43448</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:3">
       <c r="B25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4">
         <v>43452</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:3">
       <c r="B26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="4">
         <v>43459</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:3">
       <c r="B27" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="4">
         <v>43461</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:3">
       <c r="B28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="4">
         <v>43461</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:3">
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4">
         <v>43468</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="4">
         <v>43480</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="4">
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:3">
       <c r="B32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4">
         <v>43481</v>
@@ -1339,7 +1343,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4">
         <v>43482</v>
@@ -1347,7 +1351,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="4">
         <v>43486</v>
@@ -1355,7 +1359,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="4">
         <v>43486</v>
@@ -1363,7 +1367,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4">
         <v>43510</v>
@@ -1371,7 +1375,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4">
         <v>43511</v>
@@ -1379,7 +1383,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4">
         <v>43511</v>
@@ -1387,7 +1391,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4">
         <v>43522</v>
@@ -1395,7 +1399,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="4">
         <v>43522</v>
@@ -1403,7 +1407,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4">
         <v>43524</v>
@@ -1411,7 +1415,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4">
         <v>43525</v>
@@ -1433,7 +1437,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="4">
         <v>43446</v>
@@ -1441,7 +1445,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="4">
         <v>43459</v>
@@ -1449,7 +1453,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="4">
         <v>43462</v>
@@ -1457,7 +1461,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="4">
         <v>43474</v>
@@ -1465,7 +1469,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="4">
         <v>43476</v>
@@ -1473,7 +1477,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4">
         <v>43480</v>
@@ -1505,31 +1509,31 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="2:3" s="6" customFormat="1">
+      <c r="B56" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="2:3" s="6" customFormat="1">
+      <c r="B57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="2:3" s="6" customFormat="1">
+      <c r="B58" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -1605,7 +1609,7 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C70" s="10">
         <v>43441</v>
@@ -1613,7 +1617,7 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="10">
         <v>43444</v>
@@ -1621,7 +1625,7 @@
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C72" s="10">
         <v>43444</v>
@@ -1629,7 +1633,7 @@
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" s="10">
         <v>43445</v>
@@ -1637,7 +1641,7 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="4">
         <v>43447</v>
@@ -1645,7 +1649,7 @@
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="4">
         <v>43448</v>
@@ -1653,7 +1657,7 @@
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" s="4">
         <v>43448</v>
@@ -1661,7 +1665,7 @@
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="4">
         <v>43451</v>
@@ -1677,7 +1681,7 @@
     </row>
     <row r="80" spans="2:3" s="11" customFormat="1">
       <c r="B80" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="4">
         <v>43454</v>
@@ -1685,7 +1689,7 @@
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="4">
         <v>43455</v>
@@ -1693,7 +1697,7 @@
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="4">
         <v>43455</v>
@@ -1701,7 +1705,7 @@
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="4">
         <v>43455</v>
@@ -1709,7 +1713,7 @@
     </row>
     <row r="84" spans="2:3" s="11" customFormat="1">
       <c r="B84" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" s="4">
         <v>43455</v>
@@ -1717,7 +1721,7 @@
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="4">
         <v>43458</v>
@@ -1725,7 +1729,7 @@
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C86" s="4">
         <v>43463</v>
@@ -1733,7 +1737,7 @@
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="4">
         <v>43469</v>
@@ -1741,7 +1745,7 @@
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C88" s="4">
         <v>43473</v>
@@ -1749,7 +1753,7 @@
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" s="4">
         <v>43475</v>
@@ -1757,7 +1761,7 @@
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="4">
         <v>43479</v>
@@ -1765,7 +1769,7 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" s="4">
         <v>43480</v>
@@ -1773,7 +1777,7 @@
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" s="4">
         <v>43481</v>
@@ -1781,7 +1785,7 @@
     </row>
     <row r="93" spans="2:3" ht="14.25" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="4">
         <v>43481</v>
@@ -1797,7 +1801,7 @@
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="4">
         <v>43490</v>
@@ -1805,7 +1809,7 @@
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C96" s="4">
         <v>43510</v>
@@ -1813,7 +1817,7 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" s="4">
         <v>43510</v>
@@ -1821,7 +1825,7 @@
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C98" s="4">
         <v>43510</v>
@@ -1829,7 +1833,7 @@
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C99" s="4">
         <v>43510</v>
@@ -1837,7 +1841,7 @@
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" s="4">
         <v>43510</v>
@@ -1845,7 +1849,7 @@
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="4">
         <v>43514</v>
@@ -1853,7 +1857,7 @@
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="4">
         <v>43514</v>
@@ -1861,7 +1865,7 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C103" s="4">
         <v>43515</v>
@@ -1869,7 +1873,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C104" s="4">
         <v>43515</v>
@@ -1877,7 +1881,7 @@
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C105" s="4">
         <v>43515</v>
@@ -1885,7 +1889,7 @@
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106" s="4">
         <v>43515</v>
@@ -1893,7 +1897,7 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C107" s="4">
         <v>43508</v>
@@ -1901,265 +1905,260 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108" s="4">
         <v>43524</v>
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="8" t="s">
-        <v>108</v>
+      <c r="B109" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="11" t="s">
-        <v>117</v>
+      <c r="B110" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C110" s="4"/>
     </row>
     <row r="111" spans="2:3">
+      <c r="B111" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" t="s">
-        <v>31</v>
+      <c r="B112" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="B113" t="s">
-        <v>32</v>
-      </c>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3">
+      <c r="B114" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="B115" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
+      <c r="B116" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3">
       <c r="B117" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3">
-      <c r="B118" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118" s="2"/>
+    <row r="119" spans="1:3">
+      <c r="B119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="B120" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C120" s="2"/>
+      <c r="B120" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="4">
+        <v>43539</v>
+      </c>
     </row>
     <row r="121" spans="1:3">
       <c r="B121" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C121" s="4">
         <v>43539</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="B122" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="4">
-        <v>43539</v>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>39</v>
+      <c r="A124" s="1"/>
+      <c r="B124" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="4">
+        <v>43474</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1"/>
       <c r="B125" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C125" s="4">
-        <v>43474</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C126" s="4">
-        <v>43475</v>
-      </c>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="1:3">
       <c r="B127" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C127" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="B128" s="8" t="s">
-        <v>133</v>
+      <c r="B128" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1"/>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="13" t="s">
         <v>144</v>
       </c>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1"/>
-      <c r="B130" s="8" t="s">
+    <row r="130" spans="1:4" s="13" customFormat="1">
+      <c r="A130" s="14"/>
+      <c r="B130" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" s="15"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="B131" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="B132" t="s">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="B133" s="13" t="s">
-        <v>146</v>
+    <row r="134" spans="1:4">
+      <c r="B134" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C134" s="4">
+        <v>43452</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="1" t="s">
-        <v>42</v>
+      <c r="B135" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" s="4">
+        <v>43454</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C136" s="4">
-        <v>43452</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>79</v>
-      </c>
+        <v>43455</v>
+      </c>
+      <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:4">
       <c r="B137" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C137" s="4">
-        <v>43454</v>
+        <v>43539</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="B138" s="6" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C138" s="4">
-        <v>43455</v>
-      </c>
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="1:4">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="6" customFormat="1">
       <c r="B139" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C139" s="4">
-        <v>43539</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C139" s="4"/>
     </row>
     <row r="140" spans="1:4">
       <c r="B140" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C141" s="4"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="B142" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="B143" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="8" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="2:4">
       <c r="B145" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D145" s="8"/>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D146" s="8"/>
-    </row>
-    <row r="147" spans="2:4">
-      <c r="B147" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="2:4">
       <c r="B149" s="8" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="2:4">
       <c r="B150" s="8" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="B152" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="B153" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>研发计划</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>发行计划</t>
-  </si>
-  <si>
-    <t>正式全量发布</t>
   </si>
   <si>
     <t>关系链（好友和群成员）数据的获取、使用和展示</t>
@@ -405,10 +402,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>演示测试版 公司其他人员 第二波</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库备份机制</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -417,205 +410,209 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>小游戏推广启动金</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化游戏资源加载机制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>触屏操作根据准确度区分不同音效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认优化游戏资源加载机制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善排行榜设计：排行榜个人成绩显示区；结束界面自己+前2名排行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>群排行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜个人成绩显示区；结束界面自己+前2名排行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解微信平台、阿拉丁平台数据统计的支持</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解扫二维码跳转到游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏ICON制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏ICON需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图颜色动态变化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享开发完善</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信平台运营素材图需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>买量广告素材图需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>taptap是不是能接入小游戏，当做宣传和反馈的地方</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰岛是否发行小游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导第三步可分享、截图，包括玩家的头像名字，与引导阶段计算得出的称号，时间戳，小程序码</t>
+  </si>
+  <si>
+    <t>印记界面增加截图和时间戳</t>
+  </si>
+  <si>
+    <t>得到慧眼的提示框里加文字说明</t>
+  </si>
+  <si>
+    <t>交流确认广告拉取失败的情况和处理</t>
+  </si>
+  <si>
+    <t>从后台切回游戏处理的完善 在游戏进行中点击打开了去除广告的界面</t>
+  </si>
+  <si>
+    <t>视频广告UI样式和文字的调整</t>
+  </si>
+  <si>
+    <t>配置正式的全部参数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整游戏内的文本内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败界面，添加提示“留住时间，添加到我的小程序”</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：增加引导第0步，全黑屏，界面中部有音效示意图标和文字“开启声音体验更佳”，淡出淡入到引导第1步</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：引导第2步，当在有慧眼状态下，累积按错了2次，则在之后的慧眼引导中，显示附加提示“绿圈与圆形重合时，是最佳触屏时机”</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加好友和群排行榜界面Banner广告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整banner广告重新拉取的时机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除Banner广告的显示遗留部分的完善</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取玩家用户信息授权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漏满的数值降低调试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏标题Logo制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信游戏位运营素材图制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>买量广告素材图制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式版功能测试&amp;体验 项目组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳三叶草 站桩英雄</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>零境网络 我要当皇上 消灭病毒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎豹发行 跳舞的线 滚动的天空 钢琴块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信MP平台上排行榜配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始买量，130  1000用户，为了次日快速申请开广告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通广告主</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次发布90天内可申请</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架接入 微信MP平台上 服务器域名配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏测试云服务（还未开放）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeTest云测试 性能测试Argus 微信小游戏接入JS-SDK（目前不用）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏开发者工具里的云测试(暂不支持小游戏)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边功能-游戏圈、意见反馈（在广告及统计相关调试没问题后，移到自己的appid后开发）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯游戏创意大赛小游戏赛区</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>新游种子计划-公测申请</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>小游戏推广启动金</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化游戏资源加载机制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>触屏操作根据准确度区分不同音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认优化游戏资源加载机制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善排行榜设计：排行榜个人成绩显示区；结束界面自己+前2名排行</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>群排行</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜个人成绩显示区；结束界面自己+前2名排行</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解微信平台、阿拉丁平台数据统计的支持</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解扫二维码跳转到游戏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏ICON制作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏ICON需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图颜色动态变化</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享开发完善</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>开通流量主，确认设置收入相关银行账户</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信平台运营素材图需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>买量广告素材图需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>taptap是不是能接入小游戏，当做宣传和反馈的地方</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰岛是否发行小游戏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导第三步可分享、截图，包括玩家的头像名字，与引导阶段计算得出的称号，时间戳，小程序码</t>
-  </si>
-  <si>
-    <t>印记界面增加截图和时间戳</t>
-  </si>
-  <si>
-    <t>得到慧眼的提示框里加文字说明</t>
-  </si>
-  <si>
-    <t>交流确认广告拉取失败的情况和处理</t>
-  </si>
-  <si>
-    <t>从后台切回游戏处理的完善 在游戏进行中点击打开了去除广告的界面</t>
-  </si>
-  <si>
-    <t>视频广告UI样式和文字的调整</t>
-  </si>
-  <si>
-    <t>配置正式的全部参数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整游戏内的文本内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败界面，添加提示“留住时间，添加到我的小程序”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化：增加引导第0步，全黑屏，界面中部有音效示意图标和文字“开启声音体验更佳”，淡出淡入到引导第1步</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化：引导第2步，当在有慧眼状态下，累积按错了2次，则在之后的慧眼引导中，显示附加提示“绿圈与圆形重合时，是最佳触屏时机”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加好友和群排行榜界面Banner广告</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整banner广告重新拉取的时机</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>去除Banner广告的显示遗留部分的完善</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取玩家用户信息授权</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漏满的数值降低调试</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏标题Logo制作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信游戏位运营素材图制作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>买量广告素材图制作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式版功能测试&amp;体验 项目组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳三叶草 站桩英雄</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>零境网络 我要当皇上 消灭病毒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎豹发行 跳舞的线 滚动的天空 钢琴块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯游戏创意大赛小游戏赛区</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信MP平台上排行榜配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>周边功能-游戏圈、意见反馈（在广告及统计相关调试没问题后，移到自己的appid后开发）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始买量，130  1000用户，为了次日快速申请开广告</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>开通广告主</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次发布90天内可申请</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上架接入 微信MP平台上 服务器域名配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信小游戏测试云服务（还未开放）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeTest云测试 性能测试Argus 微信小游戏接入JS-SDK（目前不用）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信小游戏开发者工具里的云测试(暂不支持小游戏)</t>
+    <t>买量,测数据表现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通流量主，确认账户、公司资质材料</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1076,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1207,7 +1204,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10">
         <v>43441</v>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="10">
         <v>43444</v>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="10">
         <v>43444</v>
@@ -1231,7 +1228,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="10">
         <v>43444</v>
@@ -1247,7 +1244,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4">
         <v>43446</v>
@@ -1263,7 +1260,7 @@
     </row>
     <row r="23" spans="2:3" s="12" customFormat="1">
       <c r="B23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4">
         <v>43447</v>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4">
         <v>43448</v>
@@ -1279,7 +1276,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4">
         <v>43452</v>
@@ -1287,7 +1284,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4">
         <v>43459</v>
@@ -1295,7 +1292,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="4">
         <v>43461</v>
@@ -1303,7 +1300,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="4">
         <v>43461</v>
@@ -1311,7 +1308,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="4">
         <v>43468</v>
@@ -1319,7 +1316,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C30" s="4">
         <v>43480</v>
@@ -1327,7 +1324,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" s="4">
         <v>43480</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="4">
         <v>43481</v>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="4">
         <v>43482</v>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4">
         <v>43486</v>
@@ -1359,7 +1356,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" s="4">
         <v>43486</v>
@@ -1367,7 +1364,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="4">
         <v>43510</v>
@@ -1375,7 +1372,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" s="4">
         <v>43511</v>
@@ -1383,7 +1380,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4">
         <v>43511</v>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C39" s="4">
         <v>43522</v>
@@ -1399,7 +1396,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4">
         <v>43522</v>
@@ -1407,7 +1404,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4">
         <v>43524</v>
@@ -1415,7 +1412,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C42" s="4">
         <v>43525</v>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4">
         <v>43446</v>
@@ -1445,7 +1442,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="4">
         <v>43459</v>
@@ -1453,7 +1450,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="4">
         <v>43462</v>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="4">
         <v>43474</v>
@@ -1469,7 +1466,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="4">
         <v>43476</v>
@@ -1477,7 +1474,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="4">
         <v>43480</v>
@@ -1509,13 +1506,13 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:3" s="6" customFormat="1">
       <c r="B56" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C56" s="4"/>
     </row>
@@ -1527,13 +1524,13 @@
     </row>
     <row r="58" spans="2:3" s="6" customFormat="1">
       <c r="B58" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -1609,7 +1606,7 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" s="10">
         <v>43441</v>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" s="10">
         <v>43444</v>
@@ -1625,7 +1622,7 @@
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C72" s="10">
         <v>43444</v>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" s="10">
         <v>43445</v>
@@ -1641,7 +1638,7 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" s="4">
         <v>43447</v>
@@ -1649,7 +1646,7 @@
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="4">
         <v>43448</v>
@@ -1657,7 +1654,7 @@
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="4">
         <v>43448</v>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" s="4">
         <v>43451</v>
@@ -1681,7 +1678,7 @@
     </row>
     <row r="80" spans="2:3" s="11" customFormat="1">
       <c r="B80" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="4">
         <v>43454</v>
@@ -1689,7 +1686,7 @@
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="4">
         <v>43455</v>
@@ -1697,7 +1694,7 @@
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="4">
         <v>43455</v>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="4">
         <v>43455</v>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="84" spans="2:3" s="11" customFormat="1">
       <c r="B84" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" s="4">
         <v>43455</v>
@@ -1721,7 +1718,7 @@
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="4">
         <v>43458</v>
@@ -1729,7 +1726,7 @@
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" s="4">
         <v>43463</v>
@@ -1737,7 +1734,7 @@
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="4">
         <v>43469</v>
@@ -1745,7 +1742,7 @@
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C88" s="4">
         <v>43473</v>
@@ -1753,7 +1750,7 @@
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C89" s="4">
         <v>43475</v>
@@ -1761,7 +1758,7 @@
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C90" s="4">
         <v>43479</v>
@@ -1769,7 +1766,7 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C91" s="4">
         <v>43480</v>
@@ -1777,7 +1774,7 @@
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C92" s="4">
         <v>43481</v>
@@ -1785,7 +1782,7 @@
     </row>
     <row r="93" spans="2:3" ht="14.25" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C93" s="4">
         <v>43481</v>
@@ -1801,7 +1798,7 @@
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C95" s="4">
         <v>43490</v>
@@ -1809,7 +1806,7 @@
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C96" s="4">
         <v>43510</v>
@@ -1817,7 +1814,7 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C97" s="4">
         <v>43510</v>
@@ -1825,7 +1822,7 @@
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C98" s="4">
         <v>43510</v>
@@ -1833,7 +1830,7 @@
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C99" s="4">
         <v>43510</v>
@@ -1841,7 +1838,7 @@
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C100" s="4">
         <v>43510</v>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C101" s="4">
         <v>43514</v>
@@ -1857,7 +1854,7 @@
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C102" s="4">
         <v>43514</v>
@@ -1865,7 +1862,7 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C103" s="4">
         <v>43515</v>
@@ -1873,7 +1870,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C104" s="4">
         <v>43515</v>
@@ -1881,7 +1878,7 @@
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C105" s="4">
         <v>43515</v>
@@ -1889,7 +1886,7 @@
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C106" s="4">
         <v>43515</v>
@@ -1897,7 +1894,7 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C107" s="4">
         <v>43508</v>
@@ -1905,7 +1902,7 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C108" s="4">
         <v>43524</v>
@@ -1913,13 +1910,13 @@
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C110" s="4"/>
     </row>
@@ -1935,230 +1932,220 @@
       </c>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="1:3">
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="B114" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C114" s="2"/>
+    <row r="114" spans="1:3" s="6" customFormat="1">
+      <c r="B114" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="1:3">
+      <c r="B115" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
       <c r="B116" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:3">
-      <c r="B117" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C117" s="2"/>
+    <row r="118" spans="1:3">
+      <c r="B118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="B119" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C119" s="2"/>
+      <c r="B119" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="4">
+        <v>43539</v>
+      </c>
     </row>
     <row r="120" spans="1:3">
       <c r="B120" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C120" s="4">
         <v>43539</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="B121" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="4">
-        <v>43539</v>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
-        <v>39</v>
+      <c r="A123" s="1"/>
+      <c r="B123" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="4">
+        <v>43474</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1"/>
       <c r="B124" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C124" s="4">
-        <v>43474</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="6" customFormat="1">
       <c r="B125" s="6" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C125" s="4">
-        <v>43475</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="B126" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" s="4"/>
+      <c r="B126" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="B127" s="8" t="s">
-        <v>132</v>
+      <c r="A127" s="1"/>
+      <c r="B127" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" s="13" customFormat="1">
+      <c r="A128" s="14"/>
       <c r="B128" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C128" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C128" s="15"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="1"/>
       <c r="B129" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:4" s="13" customFormat="1">
-      <c r="A130" s="14"/>
-      <c r="B130" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C130" s="15"/>
+        <v>139</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="B131" s="13" t="s">
-        <v>145</v>
+      <c r="A131" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" s="4">
+        <v>43452</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1" t="s">
-        <v>41</v>
+      <c r="B133" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="4">
+        <v>43454</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="B134" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C134" s="4">
-        <v>43452</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>78</v>
-      </c>
+        <v>43455</v>
+      </c>
+      <c r="D134" s="8"/>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C135" s="4">
-        <v>43454</v>
+        <v>43539</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" s="4">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="6" customFormat="1">
+      <c r="B137" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="4">
-        <v>43455</v>
-      </c>
-      <c r="D136" s="8"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="B137" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C137" s="4">
-        <v>43539</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="B138" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C138" s="4">
-        <v>43553</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="6" customFormat="1">
-      <c r="B139" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C139" s="4"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="B140" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C140" s="4"/>
+      <c r="B140" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="B141" s="8" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="B142" t="s">
-        <v>42</v>
+      <c r="B142" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D143" s="8" t="s">
         <v>141</v>
       </c>
+      <c r="D143" s="8"/>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
-      <c r="B145" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D145" s="8"/>
-    </row>
-    <row r="146" spans="2:4">
+    </row>
+    <row r="146" spans="2:2">
       <c r="B146" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
       <c r="B148" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
       <c r="B149" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4">
-      <c r="B151" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1945,7 +1945,7 @@
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C116" s="2"/>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>研发计划</t>
   </si>
@@ -297,10 +297,6 @@
   </si>
   <si>
     <t>正式上架的小游戏账号注册</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>和孟总确认账户</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1075,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1284,7 +1280,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4">
         <v>43459</v>
@@ -1292,7 +1288,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4">
         <v>43461</v>
@@ -1300,7 +1296,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4">
         <v>43461</v>
@@ -1308,7 +1304,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4">
         <v>43468</v>
@@ -1316,7 +1312,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="4">
         <v>43480</v>
@@ -1324,7 +1320,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="4">
         <v>43480</v>
@@ -1332,7 +1328,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4">
         <v>43481</v>
@@ -1348,7 +1344,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="4">
         <v>43486</v>
@@ -1356,7 +1352,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="4">
         <v>43486</v>
@@ -1372,7 +1368,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="4">
         <v>43511</v>
@@ -1380,7 +1376,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="4">
         <v>43511</v>
@@ -1388,7 +1384,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4">
         <v>43522</v>
@@ -1396,7 +1392,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4">
         <v>43522</v>
@@ -1412,7 +1408,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="4">
         <v>43525</v>
@@ -1442,7 +1438,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="4">
         <v>43459</v>
@@ -1450,7 +1446,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="4">
         <v>43462</v>
@@ -1458,7 +1454,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="4">
         <v>43474</v>
@@ -1466,7 +1462,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="4">
         <v>43476</v>
@@ -1506,13 +1502,13 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:3" s="6" customFormat="1">
       <c r="B56" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="4"/>
     </row>
@@ -1524,13 +1520,13 @@
     </row>
     <row r="58" spans="2:3" s="6" customFormat="1">
       <c r="B58" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -1702,7 +1698,7 @@
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="4">
         <v>43455</v>
@@ -1718,7 +1714,7 @@
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="4">
         <v>43458</v>
@@ -1750,7 +1746,7 @@
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="4">
         <v>43475</v>
@@ -1758,7 +1754,7 @@
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="4">
         <v>43479</v>
@@ -1766,7 +1762,7 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="4">
         <v>43480</v>
@@ -1774,7 +1770,7 @@
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" s="4">
         <v>43481</v>
@@ -1782,7 +1778,7 @@
     </row>
     <row r="93" spans="2:3" ht="14.25" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" s="4">
         <v>43481</v>
@@ -1798,7 +1794,7 @@
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" s="4">
         <v>43490</v>
@@ -1806,7 +1802,7 @@
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C96" s="4">
         <v>43510</v>
@@ -1814,7 +1810,7 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="4">
         <v>43510</v>
@@ -1822,7 +1818,7 @@
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98" s="4">
         <v>43510</v>
@@ -1830,7 +1826,7 @@
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="4">
         <v>43510</v>
@@ -1838,7 +1834,7 @@
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="4">
         <v>43510</v>
@@ -1846,7 +1842,7 @@
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101" s="4">
         <v>43514</v>
@@ -1854,7 +1850,7 @@
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" s="4">
         <v>43514</v>
@@ -1862,7 +1858,7 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C103" s="4">
         <v>43515</v>
@@ -1870,7 +1866,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C104" s="4">
         <v>43515</v>
@@ -1878,7 +1874,7 @@
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C105" s="4">
         <v>43515</v>
@@ -1886,7 +1882,7 @@
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C106" s="4">
         <v>43515</v>
@@ -1894,7 +1890,7 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C107" s="4">
         <v>43508</v>
@@ -1902,7 +1898,7 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C108" s="4">
         <v>43524</v>
@@ -1910,13 +1906,13 @@
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="4"/>
     </row>
@@ -1934,19 +1930,19 @@
     </row>
     <row r="114" spans="1:3" s="6" customFormat="1">
       <c r="B114" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C114" s="4"/>
     </row>
     <row r="115" spans="1:3">
       <c r="B115" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
       <c r="B116" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2"/>
     </row>
@@ -1980,7 +1976,7 @@
     <row r="123" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C123" s="4">
         <v>43474</v>
@@ -1988,7 +1984,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="B124" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C124" s="4">
         <v>43475</v>
@@ -1996,7 +1992,7 @@
     </row>
     <row r="125" spans="1:3" s="6" customFormat="1">
       <c r="B125" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" s="4">
         <v>43565</v>
@@ -2011,20 +2007,20 @@
     <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3" s="13" customFormat="1">
       <c r="A128" s="14"/>
       <c r="B128" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="15"/>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2040,7 +2036,7 @@
         <v>43452</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2070,7 +2066,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C136" s="4">
         <v>43553</v>
@@ -2078,47 +2074,44 @@
     </row>
     <row r="137" spans="1:4" s="6" customFormat="1">
       <c r="B137" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" s="6" customFormat="1">
+      <c r="B138" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:4" s="6" customFormat="1">
+      <c r="B140" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="4"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="B138" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C138" s="4"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="B139" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="B140" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="B141" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>135</v>
+    </row>
+    <row r="141" spans="1:4" s="6" customFormat="1">
+      <c r="B141" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D143" s="8"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="8" t="s">
@@ -2130,22 +2123,22 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>研发计划</t>
   </si>
@@ -609,6 +609,10 @@
   </si>
   <si>
     <t>开通流量主，确认账户、公司资质材料</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeCare公益计划</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1069,9 +1073,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
       <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
@@ -1525,7 +1529,7 @@
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C59" s="2"/>
@@ -2104,13 +2108,13 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="6" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="B143" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2121,23 +2125,28 @@
         <v>71</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="8" t="s">
-        <v>130</v>
+    <row r="145" spans="2:2" s="13" customFormat="1">
+      <c r="B145" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="8" t="s">
         <v>107</v>
       </c>
     </row>

--- a/时间捕手/时间捕手项目计划.xlsx
+++ b/时间捕手/时间捕手项目计划.xlsx
@@ -552,67 +552,67 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>猎豹发行 跳舞的线 滚动的天空 钢琴块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信MP平台上排行榜配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始买量，130  1000用户，为了次日快速申请开广告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通广告主</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次发布90天内可申请</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架接入 微信MP平台上 服务器域名配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏测试云服务（还未开放）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeTest云测试 性能测试Argus 微信小游戏接入JS-SDK（目前不用）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小游戏开发者工具里的云测试(暂不支持小游戏)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边功能-游戏圈、意见反馈（在广告及统计相关调试没问题后，移到自己的appid后开发）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯游戏创意大赛小游戏赛区</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新游种子计划-公测申请</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>买量,测数据表现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通流量主，确认账户、公司资质材料</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeCare公益计划</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>零境网络 我要当皇上 消灭病毒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎豹发行 跳舞的线 滚动的天空 钢琴块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信MP平台上排行榜配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始买量，130  1000用户，为了次日快速申请开广告</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>开通广告主</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次发布90天内可申请</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上架接入 微信MP平台上 服务器域名配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信小游戏测试云服务（还未开放）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeTest云测试 性能测试Argus 微信小游戏接入JS-SDK（目前不用）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信小游戏开发者工具里的云测试(暂不支持小游戏)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>周边功能-游戏圈、意见反馈（在广告及统计相关调试没问题后，移到自己的appid后开发）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯游戏创意大赛小游戏赛区</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新游种子计划-公测申请</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>买量,测数据表现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>开通流量主，确认账户、公司资质材料</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeCare公益计划</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1934,19 +1934,19 @@
     </row>
     <row r="114" spans="1:3" s="6" customFormat="1">
       <c r="B114" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C114" s="4"/>
     </row>
     <row r="115" spans="1:3">
       <c r="B115" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
       <c r="B116" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" s="2"/>
     </row>
@@ -2011,20 +2011,20 @@
     <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3" s="13" customFormat="1">
       <c r="A128" s="14"/>
       <c r="B128" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" s="15"/>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2078,33 +2078,33 @@
     </row>
     <row r="137" spans="1:4" s="6" customFormat="1">
       <c r="B137" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:4" s="6" customFormat="1">
       <c r="B138" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:4" s="6" customFormat="1">
       <c r="B140" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="6" customFormat="1">
       <c r="B141" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2114,7 +2114,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="B143" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2127,26 +2127,26 @@
     </row>
     <row r="145" spans="2:2" s="13" customFormat="1">
       <c r="B145" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="6" t="s">
         <v>107</v>
       </c>
     </row>
